--- a/docs/designs/ER図.xlsx
+++ b/docs/designs/ER図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>QA</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>並び順</t>
+  </si>
+  <si>
+    <t>めもカテゴリマスタ</t>
+  </si>
+  <si>
+    <t>めもカテゴリ</t>
+  </si>
+  <si>
+    <t>めも</t>
+  </si>
+  <si>
+    <t>めもカテゴリ（中間テーブル）</t>
   </si>
 </sst>
 </file>
@@ -90,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11.0"/>
       <name val="游ゴシック"/>
@@ -213,12 +225,6 @@
       <name val="游ゴシック"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -532,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -785,6 +791,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,10 +912,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -874,10 +924,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -886,10 +936,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -898,10 +948,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -910,10 +960,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -922,84 +972,108 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,194 +1138,25 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>254635</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>254635</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="図形 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2865120" y="1622425"/>
-          <a:ext cx="1926590" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="19050" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:alpha val="100000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="図形 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3109595" y="1511935"/>
-          <a:ext cx="208915" cy="212090"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:alpha val="100000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>515620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>722630</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="図形 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4342765" y="1513205"/>
-          <a:ext cx="207010" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:alpha val="100000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>241935</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ 6"/>
+        <xdr:cNvPr id="15" name="グループ 15"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2863215" y="1445260"/>
-          <a:ext cx="243840" cy="366395"/>
-          <a:chOff x="2863215" y="1445260"/>
-          <a:chExt cx="243840" cy="366395"/>
+          <a:off x="2865120" y="1432560"/>
+          <a:ext cx="1927225" cy="354330"/>
+          <a:chOff x="2865120" y="1432560"/>
+          <a:chExt cx="1927225" cy="354330"/>
         </a:xfrm>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:prstDash val="solid"/>
@@ -1259,13 +1164,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="図形 4"/>
+          <xdr:cNvPr id="3" name="図形 3"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2863215" y="1445260"/>
-            <a:ext cx="236220" cy="174625"/>
+          <a:xfrm flipV="1">
+            <a:off x="2865120" y="1619250"/>
+            <a:ext cx="1927225" cy="8890"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1"/>
           <a:ln w="19050" cap="flat" cmpd="sng">
@@ -1295,15 +1200,264 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1" name="図形 1"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4337050" y="1506855"/>
+            <a:ext cx="217805" cy="215265"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse"/>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="グループ 6"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4568825" y="1432560"/>
+            <a:ext cx="223520" cy="354330"/>
+            <a:chOff x="4568825" y="1432560"/>
+            <a:chExt cx="223520" cy="354330"/>
+          </a:xfrm>
+          <a:ln w="0" cap="flat" cmpd="sng">
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:grpSpPr>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="図形 4"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4568825" y="1432560"/>
+              <a:ext cx="213360" cy="163830"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1"/>
+            <a:ln w="19050" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="100000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="図形 5"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4568825" y="1605915"/>
+              <a:ext cx="223520" cy="180340"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1"/>
+            <a:ln w="19050" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="100000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="図形 5"/>
+          <xdr:cNvPr id="13" name="図形 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3159760" y="1478915"/>
+            <a:ext cx="9525" cy="308610"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000">
+                <a:alpha val="100000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="図形 14"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2865120" y="1506855"/>
+            <a:ext cx="207645" cy="215265"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse"/>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="21600000">
+          <a:off x="6713220" y="1426845"/>
+          <a:ext cx="1928495" cy="353060"/>
+          <a:chOff x="6713220" y="1426845"/>
+          <a:chExt cx="1928495" cy="353060"/>
+        </a:xfrm>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="図形 17"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="2863215" y="1627505"/>
-            <a:ext cx="243840" cy="184150"/>
+            <a:off x="6713220" y="1585595"/>
+            <a:ext cx="1928495" cy="8890"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1"/>
           <a:ln w="19050" cap="flat" cmpd="sng">
@@ -1333,54 +1487,158 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>720090</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4547235" y="1440815"/>
-          <a:ext cx="244475" cy="365760"/>
-          <a:chOff x="4547235" y="1440815"/>
-          <a:chExt cx="244475" cy="365760"/>
-        </a:xfrm>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="図形 8"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="図形 18"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4549775" y="1444625"/>
-            <a:ext cx="239395" cy="172085"/>
+            <a:off x="6948805" y="1499235"/>
+            <a:ext cx="217805" cy="212725"/>
           </a:xfrm>
-          <a:prstGeom prst="straightConnector1"/>
+          <a:prstGeom prst="ellipse"/>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
           <a:ln w="19050" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:alpha val="100000"/>
               </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="グループ 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6713220" y="1426845"/>
+            <a:ext cx="240665" cy="353060"/>
+            <a:chOff x="6713220" y="1426845"/>
+            <a:chExt cx="240665" cy="353060"/>
+          </a:xfrm>
+          <a:ln w="0" cap="flat" cmpd="sng">
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:grpSpPr>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="20" name="図形 20"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6731000" y="1616710"/>
+              <a:ext cx="222250" cy="163195"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1"/>
+            <a:ln w="19050" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="100000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="図形 21"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6713220" y="1431925"/>
+              <a:ext cx="240665" cy="198755"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1"/>
+            <a:ln w="19050" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="100000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="図形 22"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="8333104" y="1426845"/>
+            <a:ext cx="8891" cy="307975"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000">
+                <a:alpha val="100000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
@@ -1403,17 +1661,22 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="図形 9"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="図形 23"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="4547235" y="1624965"/>
-            <a:ext cx="244475" cy="184785"/>
+          <a:xfrm>
+            <a:off x="8428355" y="1499235"/>
+            <a:ext cx="208915" cy="212725"/>
           </a:xfrm>
-          <a:prstGeom prst="straightConnector1"/>
+          <a:prstGeom prst="ellipse"/>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
           <a:ln w="19050" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -1422,25 +1685,25 @@
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
-          <a:fillRef idx="0">
+          <a:fillRef idx="1">
             <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1710,135 +1973,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62500000" defaultRowHeight="21.750000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="2" style="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="16384" style="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21.750000" customHeight="1">
+    <row r="2" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:11" ht="21.750000" customHeight="1">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="18"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A4" s="2"/>
+    <row r="4" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A6" s="2"/>
+    <row r="6" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A7" s="2"/>
+    <row r="7" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A8" s="2"/>
+    <row r="8" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A9" s="2"/>
+    <row r="9" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A10" s="2"/>
+    <row r="10" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="A11" s="2"/>
+    <row r="11" spans="2:11" ht="21.750000" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="21.750000" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
+    <row r="12" ht="21.750000" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/docs/designs/ER図.xlsx
+++ b/docs/designs/ER図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="2" r:id="rId1"/>
@@ -1137,80 +1137,95 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1" name="図形 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2865120" y="1647825"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="19050" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ 15"/>
+        <xdr:cNvPr id="5" name="グループ 5"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865120" y="1432560"/>
-          <a:ext cx="1927225" cy="354330"/>
-          <a:chOff x="2865120" y="1432560"/>
-          <a:chExt cx="1927225" cy="354330"/>
+          <a:off x="2865120" y="1455420"/>
+          <a:ext cx="349250" cy="394970"/>
+          <a:chOff x="2865120" y="1455420"/>
+          <a:chExt cx="349250" cy="394970"/>
         </a:xfrm>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:prstDash val="solid"/>
         </a:ln>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="3" name="図形 3"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="2865120" y="1619250"/>
-            <a:ext cx="1927225" cy="8890"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1"/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:alpha val="100000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1" name="図形 1"/>
+          <xdr:cNvPr id="2" name="図形 2"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4337050" y="1506855"/>
-            <a:ext cx="217805" cy="215265"/>
+            <a:off x="3071495" y="1582420"/>
+            <a:ext cx="142875" cy="140970"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse"/>
           <a:solidFill>
@@ -1243,115 +1258,22 @@
           </a:fontRef>
         </xdr:style>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="グループ 6"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4568825" y="1432560"/>
-            <a:ext cx="223520" cy="354330"/>
-            <a:chOff x="4568825" y="1432560"/>
-            <a:chExt cx="223520" cy="354330"/>
-          </a:xfrm>
-          <a:ln w="0" cap="flat" cmpd="sng">
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:grpSpPr>
-        <xdr:cxnSp>
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="4" name="図形 4"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4568825" y="1432560"/>
-              <a:ext cx="213360" cy="163830"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1"/>
-            <a:ln w="19050" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp>
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="5" name="図形 5"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="4568825" y="1605915"/>
-              <a:ext cx="223520" cy="180340"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1"/>
-            <a:ln w="19050" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="図形 13"/>
+          <xdr:cNvPr id="3" name="図形 3"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="3159760" y="1478915"/>
-            <a:ext cx="9525" cy="308610"/>
+            <a:off x="2868930" y="1455420"/>
+            <a:ext cx="194945" cy="192405"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1"/>
           <a:ln w="19050" cap="flat" cmpd="sng">
             <a:solidFill>
-              <a:srgbClr val="000000">
+              <a:schemeClr val="tx1">
                 <a:alpha val="100000"/>
-              </a:srgbClr>
+              </a:schemeClr>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
@@ -1374,17 +1296,87 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="図形 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2865120" y="1652270"/>
+            <a:ext cx="198755" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4438650" y="1450975"/>
+          <a:ext cx="350520" cy="395605"/>
+          <a:chOff x="4438650" y="1450975"/>
+          <a:chExt cx="350520" cy="395605"/>
+        </a:xfrm>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="図形 14"/>
+          <xdr:cNvPr id="7" name="図形 7"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2865120" y="1506855"/>
-            <a:ext cx="207645" cy="215265"/>
+            <a:off x="4646295" y="1577975"/>
+            <a:ext cx="142875" cy="141605"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse"/>
           <a:solidFill>
@@ -1417,47 +1409,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ 16"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="21600000">
-          <a:off x="6713220" y="1426845"/>
-          <a:ext cx="1928495" cy="353060"/>
-          <a:chOff x="6713220" y="1426845"/>
-          <a:chExt cx="1928495" cy="353060"/>
-        </a:xfrm>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:grpSpPr>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="図形 17"/>
+          <xdr:cNvPr id="8" name="図形 8"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6713220" y="1585595"/>
-            <a:ext cx="1928495" cy="8890"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4444365" y="1446530"/>
+            <a:ext cx="194310" cy="194310"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1"/>
           <a:ln w="19050" cap="flat" cmpd="sng">
@@ -1487,17 +1447,140 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="図形 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4439285" y="1649095"/>
+            <a:ext cx="200025" cy="196850"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="図形 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6713220" y="1647825"/>
+          <a:ext cx="1927860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="19050" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6713220" y="1455420"/>
+          <a:ext cx="349250" cy="394970"/>
+          <a:chOff x="6713220" y="1455420"/>
+          <a:chExt cx="349250" cy="394970"/>
+        </a:xfrm>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="図形 18"/>
+          <xdr:cNvPr id="12" name="図形 12"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6948805" y="1499235"/>
-            <a:ext cx="217805" cy="212725"/>
+            <a:off x="6919595" y="1582420"/>
+            <a:ext cx="142875" cy="140970"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse"/>
           <a:solidFill>
@@ -1530,115 +1613,22 @@
           </a:fontRef>
         </xdr:style>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ 19"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6713220" y="1426845"/>
-            <a:ext cx="240665" cy="353060"/>
-            <a:chOff x="6713220" y="1426845"/>
-            <a:chExt cx="240665" cy="353060"/>
-          </a:xfrm>
-          <a:ln w="0" cap="flat" cmpd="sng">
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:grpSpPr>
-        <xdr:cxnSp>
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="20" name="図形 20"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6731000" y="1616710"/>
-              <a:ext cx="222250" cy="163195"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1"/>
-            <a:ln w="19050" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp>
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="21" name="図形 21"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="6713220" y="1431925"/>
-              <a:ext cx="240665" cy="198755"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1"/>
-            <a:ln w="19050" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="図形 22"/>
+          <xdr:cNvPr id="13" name="図形 13"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="8333104" y="1426845"/>
-            <a:ext cx="8891" cy="307975"/>
+            <a:off x="6717030" y="1455420"/>
+            <a:ext cx="194945" cy="192405"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1"/>
           <a:ln w="19050" cap="flat" cmpd="sng">
             <a:solidFill>
-              <a:srgbClr val="000000">
+              <a:schemeClr val="tx1">
                 <a:alpha val="100000"/>
-              </a:srgbClr>
+              </a:schemeClr>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
@@ -1661,17 +1651,87 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="図形 14"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6713220" y="1652270"/>
+            <a:ext cx="198755" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8286750" y="1450975"/>
+          <a:ext cx="350520" cy="395605"/>
+          <a:chOff x="8286750" y="1450975"/>
+          <a:chExt cx="350520" cy="395605"/>
+        </a:xfrm>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="図形 23"/>
+          <xdr:cNvPr id="16" name="図形 16"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8428355" y="1499235"/>
-            <a:ext cx="208915" cy="212725"/>
+            <a:off x="8494395" y="1577975"/>
+            <a:ext cx="142875" cy="141605"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse"/>
           <a:solidFill>
@@ -1704,6 +1764,82 @@
           </a:fontRef>
         </xdr:style>
       </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="図形 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="8296275" y="1446530"/>
+            <a:ext cx="190500" cy="194310"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="図形 18"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8287385" y="1649095"/>
+            <a:ext cx="200025" cy="196850"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1"/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="100000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1973,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62500000" defaultRowHeight="21.750000" customHeight="1"/>
@@ -1998,8 +2134,6 @@
         <v>9</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
@@ -2010,8 +2144,6 @@
         <v>10</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2025,7 +2157,6 @@
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
@@ -2036,12 +2167,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="E6" s="2"/>
       <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="2"/>
       <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2052,12 +2181,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="E7" s="2"/>
       <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="2"/>
       <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
@@ -2068,8 +2195,6 @@
         <v>13</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
